--- a/Radkm_Planung_2018.xlsx
+++ b/Radkm_Planung_2018.xlsx
@@ -222,34 +222,34 @@
                   <c:v>369</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>862</c:v>
+                  <c:v>925</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>984</c:v>
+                  <c:v>1237</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>984</c:v>
+                  <c:v>1237</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>984</c:v>
+                  <c:v>1237</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>984</c:v>
+                  <c:v>1237</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>984</c:v>
+                  <c:v>1237</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>984</c:v>
+                  <c:v>1237</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>984</c:v>
+                  <c:v>1237</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>984</c:v>
+                  <c:v>1237</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>984</c:v>
+                  <c:v>1237</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -374,11 +374,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="84643840"/>
-        <c:axId val="84645376"/>
+        <c:axId val="95719424"/>
+        <c:axId val="95720960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="84643840"/>
+        <c:axId val="95719424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -387,7 +387,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84645376"/>
+        <c:crossAx val="95720960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -395,7 +395,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84645376"/>
+        <c:axId val="95720960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -406,7 +406,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84643840"/>
+        <c:crossAx val="95719424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -621,10 +621,10 @@
                   <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>493</c:v>
+                  <c:v>556</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>122</c:v>
+                  <c:v>312</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -639,11 +639,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="84678528"/>
-        <c:axId val="84680064"/>
+        <c:axId val="95950720"/>
+        <c:axId val="95952256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="84678528"/>
+        <c:axId val="95950720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -652,7 +652,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84680064"/>
+        <c:crossAx val="95952256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -660,7 +660,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84680064"/>
+        <c:axId val="95952256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -671,7 +671,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84678528"/>
+        <c:crossAx val="95950720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -773,22 +773,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>984</c:v>
+                  <c:v>1237</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>984</c:v>
+                  <c:v>1237</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>984</c:v>
+                  <c:v>1237</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>984</c:v>
+                  <c:v>1237</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>984</c:v>
+                  <c:v>1237</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>984</c:v>
+                  <c:v>1237</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -884,11 +884,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="84725760"/>
-        <c:axId val="84727296"/>
+        <c:axId val="95997952"/>
+        <c:axId val="95999488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="84725760"/>
+        <c:axId val="95997952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -897,7 +897,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84727296"/>
+        <c:crossAx val="95999488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -905,7 +905,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84727296"/>
+        <c:axId val="95999488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="2000"/>
@@ -917,7 +917,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84725760"/>
+        <c:crossAx val="95997952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1025,16 +1025,16 @@
                   <c:v>369</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>862</c:v>
+                  <c:v>925</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>984</c:v>
+                  <c:v>1237</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>984</c:v>
+                  <c:v>1237</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>984</c:v>
+                  <c:v>1237</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1123,11 +1123,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="87316352"/>
-        <c:axId val="87317888"/>
+        <c:axId val="96028544"/>
+        <c:axId val="96030080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="87316352"/>
+        <c:axId val="96028544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1136,7 +1136,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87317888"/>
+        <c:crossAx val="96030080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1144,7 +1144,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87317888"/>
+        <c:axId val="96030080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1155,7 +1155,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87316352"/>
+        <c:crossAx val="96028544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1599,7 +1599,7 @@
   <dimension ref="A2:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1668,11 +1668,11 @@
         <v>650</v>
       </c>
       <c r="E5">
-        <v>493</v>
+        <v>556</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>862</v>
+        <v>925</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1687,11 +1687,11 @@
         <v>1000</v>
       </c>
       <c r="E6">
-        <v>122</v>
+        <v>312</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>984</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1707,7 +1707,7 @@
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>984</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1723,7 +1723,7 @@
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>984</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>984</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1755,7 +1755,7 @@
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>984</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1771,7 +1771,7 @@
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>984</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1787,7 +1787,7 @@
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>984</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1803,7 +1803,7 @@
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>984</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1819,7 +1819,7 @@
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>984</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1832,7 +1832,7 @@
       </c>
       <c r="E15">
         <f>SUM(E3:E14)</f>
-        <v>984</v>
+        <v>1237</v>
       </c>
     </row>
   </sheetData>

--- a/Radkm_Planung_2018.xlsx
+++ b/Radkm_Planung_2018.xlsx
@@ -225,31 +225,31 @@
                   <c:v>925</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1237</c:v>
+                  <c:v>1287</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1237</c:v>
+                  <c:v>1287</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1237</c:v>
+                  <c:v>1287</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1237</c:v>
+                  <c:v>1287</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1237</c:v>
+                  <c:v>1287</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1237</c:v>
+                  <c:v>1287</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1237</c:v>
+                  <c:v>1287</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1237</c:v>
+                  <c:v>1287</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1237</c:v>
+                  <c:v>1287</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -374,11 +374,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="95719424"/>
-        <c:axId val="95720960"/>
+        <c:axId val="84971520"/>
+        <c:axId val="84973056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95719424"/>
+        <c:axId val="84971520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -387,7 +387,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95720960"/>
+        <c:crossAx val="84973056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -395,7 +395,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95720960"/>
+        <c:axId val="84973056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -406,7 +406,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95719424"/>
+        <c:crossAx val="84971520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -624,7 +624,7 @@
                   <c:v>556</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>312</c:v>
+                  <c:v>362</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -639,11 +639,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="95950720"/>
-        <c:axId val="95952256"/>
+        <c:axId val="86579072"/>
+        <c:axId val="86580608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="95950720"/>
+        <c:axId val="86579072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -652,7 +652,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95952256"/>
+        <c:crossAx val="86580608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -660,7 +660,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95952256"/>
+        <c:axId val="86580608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -671,7 +671,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95950720"/>
+        <c:crossAx val="86579072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -773,22 +773,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1237</c:v>
+                  <c:v>1287</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1237</c:v>
+                  <c:v>1287</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1237</c:v>
+                  <c:v>1287</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1237</c:v>
+                  <c:v>1287</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1237</c:v>
+                  <c:v>1287</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1237</c:v>
+                  <c:v>1287</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -884,11 +884,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="95997952"/>
-        <c:axId val="95999488"/>
+        <c:axId val="86626304"/>
+        <c:axId val="86627840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95997952"/>
+        <c:axId val="86626304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -897,7 +897,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95999488"/>
+        <c:crossAx val="86627840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -905,7 +905,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95999488"/>
+        <c:axId val="86627840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="2000"/>
@@ -917,7 +917,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95997952"/>
+        <c:crossAx val="86626304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1028,13 +1028,13 @@
                   <c:v>925</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1237</c:v>
+                  <c:v>1287</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1237</c:v>
+                  <c:v>1287</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1237</c:v>
+                  <c:v>1287</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1123,11 +1123,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="96028544"/>
-        <c:axId val="96030080"/>
+        <c:axId val="87902080"/>
+        <c:axId val="87903616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="96028544"/>
+        <c:axId val="87902080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1136,7 +1136,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96030080"/>
+        <c:crossAx val="87903616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1144,7 +1144,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96030080"/>
+        <c:axId val="87903616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1155,7 +1155,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96028544"/>
+        <c:crossAx val="87902080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1599,7 +1599,7 @@
   <dimension ref="A2:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1687,11 +1687,11 @@
         <v>1000</v>
       </c>
       <c r="E6">
-        <v>312</v>
+        <v>362</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>1237</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1707,7 +1707,7 @@
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>1237</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1723,7 +1723,7 @@
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>1237</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>1237</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1755,7 +1755,7 @@
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>1237</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1771,7 +1771,7 @@
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>1237</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1787,7 +1787,7 @@
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>1237</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1803,7 +1803,7 @@
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>1237</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1819,7 +1819,7 @@
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>1237</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1832,7 +1832,7 @@
       </c>
       <c r="E15">
         <f>SUM(E3:E14)</f>
-        <v>1237</v>
+        <v>1287</v>
       </c>
     </row>
   </sheetData>

--- a/Radkm_Planung_2018.xlsx
+++ b/Radkm_Planung_2018.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wib\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="150" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -72,7 +77,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -114,12 +119,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -225,36 +233,41 @@
                   <c:v>925</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1287</c:v>
+                  <c:v>1559</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1287</c:v>
+                  <c:v>1559</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1287</c:v>
+                  <c:v>1559</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1287</c:v>
+                  <c:v>1559</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1287</c:v>
+                  <c:v>1559</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1287</c:v>
+                  <c:v>1559</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1287</c:v>
+                  <c:v>1559</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1287</c:v>
+                  <c:v>1559</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1287</c:v>
+                  <c:v>1559</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-68CC-46A5-A005-A4142E5F77DA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -363,6 +376,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-68CC-46A5-A005-A4142E5F77DA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -372,7 +390,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="84971520"/>
         <c:axId val="84973056"/>
@@ -384,6 +401,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -432,7 +450,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -556,6 +574,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-63F2-463C-9ADA-63650273108A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -624,11 +647,16 @@
                   <c:v>556</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>362</c:v>
+                  <c:v>634</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-63F2-463C-9ADA-63650273108A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -649,6 +677,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -697,7 +726,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -773,27 +802,32 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1287</c:v>
+                  <c:v>1559</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1287</c:v>
+                  <c:v>1559</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1287</c:v>
+                  <c:v>1559</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1287</c:v>
+                  <c:v>1559</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1287</c:v>
+                  <c:v>1559</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1287</c:v>
+                  <c:v>1559</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-757A-404A-B1A4-F1E0155A5B4C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -873,6 +907,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-757A-404A-B1A4-F1E0155A5B4C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -882,7 +921,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="86626304"/>
         <c:axId val="86627840"/>
@@ -894,6 +932,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -940,7 +979,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -1028,18 +1067,23 @@
                   <c:v>925</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1287</c:v>
+                  <c:v>1559</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1287</c:v>
+                  <c:v>1559</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1287</c:v>
+                  <c:v>1559</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B1BA-42FD-A4E9-3885CADB25D8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -1112,6 +1156,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B1BA-42FD-A4E9-3885CADB25D8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1121,7 +1170,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="87902080"/>
         <c:axId val="87903616"/>
@@ -1133,6 +1181,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1310,9 +1359,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1350,9 +1399,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1387,7 +1436,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1422,7 +1471,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1599,7 +1648,7 @@
   <dimension ref="A2:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1687,11 +1736,11 @@
         <v>1000</v>
       </c>
       <c r="E6">
-        <v>362</v>
+        <v>634</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>1287</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1707,7 +1756,7 @@
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>1287</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1723,7 +1772,7 @@
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>1287</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1739,7 +1788,7 @@
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>1287</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1755,7 +1804,7 @@
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>1287</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1771,7 +1820,7 @@
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>1287</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1787,7 +1836,7 @@
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>1287</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1803,7 +1852,7 @@
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>1287</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1819,7 +1868,7 @@
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>1287</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1832,7 +1881,7 @@
       </c>
       <c r="E15">
         <f>SUM(E3:E14)</f>
-        <v>1287</v>
+        <v>1559</v>
       </c>
     </row>
   </sheetData>

--- a/Radkm_Planung_2018.xlsx
+++ b/Radkm_Planung_2018.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wib\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="150" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
@@ -16,7 +11,7 @@
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -77,7 +72,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -127,7 +122,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -233,37 +228,37 @@
                   <c:v>925</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1559</c:v>
+                  <c:v>1634</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1559</c:v>
+                  <c:v>1634</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1559</c:v>
+                  <c:v>1634</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1559</c:v>
+                  <c:v>1634</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1559</c:v>
+                  <c:v>1634</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1559</c:v>
+                  <c:v>1634</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1559</c:v>
+                  <c:v>1634</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1559</c:v>
+                  <c:v>1634</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1559</c:v>
+                  <c:v>1634</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-68CC-46A5-A005-A4142E5F77DA}"/>
             </c:ext>
@@ -376,7 +371,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-68CC-46A5-A005-A4142E5F77DA}"/>
             </c:ext>
@@ -390,12 +385,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="84971520"/>
-        <c:axId val="84973056"/>
+        <c:axId val="87462656"/>
+        <c:axId val="87464192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="84971520"/>
+        <c:axId val="87462656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -405,7 +401,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84973056"/>
+        <c:crossAx val="87464192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -413,7 +409,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84973056"/>
+        <c:axId val="87464192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -424,7 +420,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84971520"/>
+        <c:crossAx val="87462656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -450,7 +446,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -574,7 +570,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-63F2-463C-9ADA-63650273108A}"/>
             </c:ext>
@@ -647,12 +643,12 @@
                   <c:v>556</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>634</c:v>
+                  <c:v>709</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-63F2-463C-9ADA-63650273108A}"/>
             </c:ext>
@@ -667,11 +663,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="86579072"/>
-        <c:axId val="86580608"/>
+        <c:axId val="87481728"/>
+        <c:axId val="88237184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="86579072"/>
+        <c:axId val="87481728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -681,7 +677,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86580608"/>
+        <c:crossAx val="88237184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -689,7 +685,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86580608"/>
+        <c:axId val="88237184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -700,7 +696,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86579072"/>
+        <c:crossAx val="87481728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -726,7 +722,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -802,28 +798,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1559</c:v>
+                  <c:v>1634</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1559</c:v>
+                  <c:v>1634</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1559</c:v>
+                  <c:v>1634</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1559</c:v>
+                  <c:v>1634</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1559</c:v>
+                  <c:v>1634</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1559</c:v>
+                  <c:v>1634</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-757A-404A-B1A4-F1E0155A5B4C}"/>
             </c:ext>
@@ -907,7 +903,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-757A-404A-B1A4-F1E0155A5B4C}"/>
             </c:ext>
@@ -921,12 +917,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="86626304"/>
-        <c:axId val="86627840"/>
+        <c:axId val="88267008"/>
+        <c:axId val="88268800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="86626304"/>
+        <c:axId val="88267008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -936,7 +933,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86627840"/>
+        <c:crossAx val="88268800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -944,7 +941,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86627840"/>
+        <c:axId val="88268800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="2000"/>
@@ -956,7 +953,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86626304"/>
+        <c:crossAx val="88267008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -979,7 +976,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -1067,19 +1064,19 @@
                   <c:v>925</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1559</c:v>
+                  <c:v>1634</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1559</c:v>
+                  <c:v>1634</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1559</c:v>
+                  <c:v>1634</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B1BA-42FD-A4E9-3885CADB25D8}"/>
             </c:ext>
@@ -1156,7 +1153,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B1BA-42FD-A4E9-3885CADB25D8}"/>
             </c:ext>
@@ -1170,12 +1167,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="87902080"/>
-        <c:axId val="87903616"/>
+        <c:axId val="87975040"/>
+        <c:axId val="87976576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="87902080"/>
+        <c:axId val="87975040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1185,7 +1183,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87903616"/>
+        <c:crossAx val="87976576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1193,7 +1191,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87903616"/>
+        <c:axId val="87976576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1204,7 +1202,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87902080"/>
+        <c:crossAx val="87975040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1359,9 +1357,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1399,9 +1397,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1436,7 +1434,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1471,7 +1469,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1648,7 +1646,7 @@
   <dimension ref="A2:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1736,11 +1734,11 @@
         <v>1000</v>
       </c>
       <c r="E6">
-        <v>634</v>
+        <v>709</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>1559</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1756,7 +1754,7 @@
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>1559</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1772,7 +1770,7 @@
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>1559</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1788,7 +1786,7 @@
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>1559</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1804,7 +1802,7 @@
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>1559</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1820,7 +1818,7 @@
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>1559</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1836,7 +1834,7 @@
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>1559</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1852,7 +1850,7 @@
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>1559</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1868,7 +1866,7 @@
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>1559</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1881,7 +1879,7 @@
       </c>
       <c r="E15">
         <f>SUM(E3:E14)</f>
-        <v>1559</v>
+        <v>1634</v>
       </c>
     </row>
   </sheetData>

--- a/Radkm_Planung_2018.xlsx
+++ b/Radkm_Planung_2018.xlsx
@@ -231,28 +231,28 @@
                   <c:v>1634</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1634</c:v>
+                  <c:v>1789</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1634</c:v>
+                  <c:v>1789</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1634</c:v>
+                  <c:v>1789</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1634</c:v>
+                  <c:v>1789</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1634</c:v>
+                  <c:v>1789</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1634</c:v>
+                  <c:v>1789</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1634</c:v>
+                  <c:v>1789</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1634</c:v>
+                  <c:v>1789</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -387,11 +387,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="87462656"/>
-        <c:axId val="87464192"/>
+        <c:axId val="85431040"/>
+        <c:axId val="85432576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="87462656"/>
+        <c:axId val="85431040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -401,7 +401,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87464192"/>
+        <c:crossAx val="85432576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -409,7 +409,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87464192"/>
+        <c:axId val="85432576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -420,7 +420,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87462656"/>
+        <c:crossAx val="85431040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -645,6 +645,9 @@
                 <c:pt idx="3">
                   <c:v>709</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>155</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -663,11 +666,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="87481728"/>
-        <c:axId val="88237184"/>
+        <c:axId val="85450112"/>
+        <c:axId val="85484672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="87481728"/>
+        <c:axId val="85450112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -677,7 +680,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88237184"/>
+        <c:crossAx val="85484672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -685,7 +688,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88237184"/>
+        <c:axId val="85484672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -696,7 +699,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87481728"/>
+        <c:crossAx val="85450112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -798,22 +801,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1634</c:v>
+                  <c:v>1789</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1634</c:v>
+                  <c:v>1789</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1634</c:v>
+                  <c:v>1789</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1634</c:v>
+                  <c:v>1789</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1634</c:v>
+                  <c:v>1789</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1634</c:v>
+                  <c:v>1789</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -919,11 +922,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="88267008"/>
-        <c:axId val="88268800"/>
+        <c:axId val="85514496"/>
+        <c:axId val="85516288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="88267008"/>
+        <c:axId val="85514496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -933,7 +936,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88268800"/>
+        <c:crossAx val="85516288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -941,7 +944,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88268800"/>
+        <c:axId val="85516288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="2000"/>
@@ -953,7 +956,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88267008"/>
+        <c:crossAx val="85514496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1067,10 +1070,10 @@
                   <c:v>1634</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1634</c:v>
+                  <c:v>1789</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1634</c:v>
+                  <c:v>1789</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1169,11 +1172,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="87975040"/>
-        <c:axId val="87976576"/>
+        <c:axId val="86860928"/>
+        <c:axId val="86862464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="87975040"/>
+        <c:axId val="86860928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1183,7 +1186,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87976576"/>
+        <c:crossAx val="86862464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1191,7 +1194,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87976576"/>
+        <c:axId val="86862464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1202,7 +1205,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87975040"/>
+        <c:crossAx val="86860928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1646,7 +1649,7 @@
   <dimension ref="A2:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1752,9 +1755,12 @@
         <f t="shared" si="0"/>
         <v>1300</v>
       </c>
+      <c r="E7">
+        <v>155</v>
+      </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>1634</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1770,7 +1776,7 @@
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>1634</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1786,7 +1792,7 @@
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>1634</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1802,7 +1808,7 @@
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>1634</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1818,7 +1824,7 @@
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>1634</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1834,7 +1840,7 @@
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>1634</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1850,7 +1856,7 @@
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>1634</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1866,7 +1872,7 @@
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>1634</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1879,7 +1885,7 @@
       </c>
       <c r="E15">
         <f>SUM(E3:E14)</f>
-        <v>1634</v>
+        <v>1789</v>
       </c>
     </row>
   </sheetData>

--- a/Radkm_Planung_2018.xlsx
+++ b/Radkm_Planung_2018.xlsx
@@ -231,28 +231,28 @@
                   <c:v>1634</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1789</c:v>
+                  <c:v>1987</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1789</c:v>
+                  <c:v>2542</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1789</c:v>
+                  <c:v>2542</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1789</c:v>
+                  <c:v>2542</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1789</c:v>
+                  <c:v>2542</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1789</c:v>
+                  <c:v>2542</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1789</c:v>
+                  <c:v>2542</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1789</c:v>
+                  <c:v>2542</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -387,11 +387,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="85431040"/>
-        <c:axId val="85432576"/>
+        <c:axId val="86741760"/>
+        <c:axId val="86743296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="85431040"/>
+        <c:axId val="86741760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -401,7 +401,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85432576"/>
+        <c:crossAx val="86743296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -409,7 +409,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85432576"/>
+        <c:axId val="86743296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -420,7 +420,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85431040"/>
+        <c:crossAx val="86741760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -646,7 +646,10 @@
                   <c:v>709</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>155</c:v>
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>555</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -666,11 +669,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="85450112"/>
-        <c:axId val="85484672"/>
+        <c:axId val="86760832"/>
+        <c:axId val="86795392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="85450112"/>
+        <c:axId val="86760832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -680,7 +683,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85484672"/>
+        <c:crossAx val="86795392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -688,7 +691,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85484672"/>
+        <c:axId val="86795392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -699,7 +702,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85450112"/>
+        <c:crossAx val="86760832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -801,22 +804,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1789</c:v>
+                  <c:v>2542</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1789</c:v>
+                  <c:v>2542</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1789</c:v>
+                  <c:v>2542</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1789</c:v>
+                  <c:v>2542</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1789</c:v>
+                  <c:v>2542</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1789</c:v>
+                  <c:v>2542</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -922,11 +925,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="85514496"/>
-        <c:axId val="85516288"/>
+        <c:axId val="86825216"/>
+        <c:axId val="86827008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="85514496"/>
+        <c:axId val="86825216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -936,7 +939,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85516288"/>
+        <c:crossAx val="86827008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -944,7 +947,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85516288"/>
+        <c:axId val="86827008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="2000"/>
@@ -956,7 +959,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85514496"/>
+        <c:crossAx val="86825216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1070,10 +1073,10 @@
                   <c:v>1634</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1789</c:v>
+                  <c:v>1987</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1789</c:v>
+                  <c:v>2542</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1172,11 +1175,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="86860928"/>
-        <c:axId val="86862464"/>
+        <c:axId val="87909504"/>
+        <c:axId val="87911040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="86860928"/>
+        <c:axId val="87909504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1186,7 +1189,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86862464"/>
+        <c:crossAx val="87911040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1194,7 +1197,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86862464"/>
+        <c:axId val="87911040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1205,7 +1208,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86860928"/>
+        <c:crossAx val="87909504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1649,7 +1652,7 @@
   <dimension ref="A2:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1756,11 +1759,11 @@
         <v>1300</v>
       </c>
       <c r="E7">
-        <v>155</v>
+        <v>353</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>1789</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1774,9 +1777,12 @@
         <f t="shared" si="0"/>
         <v>1700</v>
       </c>
+      <c r="E8">
+        <v>555</v>
+      </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>1789</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1792,7 +1798,7 @@
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>1789</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1808,7 +1814,7 @@
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>1789</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1824,7 +1830,7 @@
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>1789</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1840,7 +1846,7 @@
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>1789</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1856,7 +1862,7 @@
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>1789</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1872,7 +1878,7 @@
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>1789</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1885,7 +1891,7 @@
       </c>
       <c r="E15">
         <f>SUM(E3:E14)</f>
-        <v>1789</v>
+        <v>2542</v>
       </c>
     </row>
   </sheetData>

--- a/Radkm_Planung_2018.xlsx
+++ b/Radkm_Planung_2018.xlsx
@@ -73,10 +73,24 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -102,8 +116,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -137,37 +153,31 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.10042229477412884"/>
-          <c:y val="4.4276063852674151E-2"/>
-          <c:w val="0.65952265113202313"/>
-          <c:h val="0.64865109074480443"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="2"/>
+          <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$F$2</c:f>
+              <c:f>Tabelle1!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AkkumIst</c:v>
+                  <c:v>Soll</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Tabelle1!$A$3:$A$14</c:f>
@@ -214,73 +224,67 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$F$3:$F$14</c:f>
+              <c:f>Tabelle1!$C$3:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>275</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>369</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>925</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1634</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1987</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2542</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2542</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2542</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2542</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2542</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2542</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2542</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-68CC-46A5-A005-A4142E5F77DA}"/>
+              <c16:uniqueId val="{00000000-63F2-463C-9ADA-63650273108A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="3"/>
+          <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Tabelle1!$D$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>AkkumSoll</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Ist</c:v>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Tabelle1!$A$3:$A$14</c:f>
@@ -327,53 +331,37 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$D$3:$D$14</c:f>
+              <c:f>Tabelle1!$E$3:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>150</c:v>
+                  <c:v>275</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>350</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>650</c:v>
+                  <c:v>556</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1000</c:v>
+                  <c:v>709</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1300</c:v>
+                  <c:v>353</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1700</c:v>
+                  <c:v>593</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2200</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2450</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2850</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3150</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3350</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3500</c:v>
+                  <c:v>238</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-68CC-46A5-A005-A4142E5F77DA}"/>
+              <c16:uniqueId val="{00000001-63F2-463C-9ADA-63650273108A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -385,13 +373,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="86741760"/>
-        <c:axId val="86743296"/>
-      </c:lineChart>
+        <c:gapWidth val="150"/>
+        <c:axId val="87022976"/>
+        <c:axId val="88306816"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="86741760"/>
+        <c:axId val="87022976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -401,7 +388,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86743296"/>
+        <c:crossAx val="88306816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -409,7 +396,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86743296"/>
+        <c:axId val="88306816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -420,7 +407,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86741760"/>
+        <c:crossAx val="87022976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -461,31 +448,49 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23238643824027541"/>
+          <c:y val="3.3228162269190037E-2"/>
+          <c:w val="0.55800817402008984"/>
+          <c:h val="0.74225132384767689"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="0"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$C$2</c:f>
+              <c:f>Tabelle1!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Soll</c:v>
+                  <c:v>AkkumIst</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$3:$A$14</c:f>
+              <c:f>Tabelle1!$A$3:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Januar</c:v>
                 </c:pt>
@@ -503,91 +508,73 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Juni</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Juli</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>August</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>September</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Oktober</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>November</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Dezember</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$C$3:$C$14</c:f>
+              <c:f>Tabelle1!$F$3:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>150</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>275</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>369</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300</c:v>
+                  <c:v>925</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>350</c:v>
+                  <c:v>1634</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>300</c:v>
+                  <c:v>1987</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>150</c:v>
+                  <c:v>2580</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-63F2-463C-9ADA-63650273108A}"/>
+              <c16:uniqueId val="{00000000-B1BA-42FD-A4E9-3885CADB25D8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="1"/>
+          <c:idx val="0"/>
+          <c:order val="0"/>
           <c:tx>
-            <c:v>Ist</c:v>
+            <c:strRef>
+              <c:f>Tabelle1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AkkumSoll</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$3:$A$14</c:f>
+              <c:f>Tabelle1!$A$3:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Januar</c:v>
                 </c:pt>
@@ -605,58 +592,41 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Juni</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Juli</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>August</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>September</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Oktober</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>November</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Dezember</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$E$3:$E$14</c:f>
+              <c:f>Tabelle1!$D$3:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>275</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>94</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>556</c:v>
+                  <c:v>650</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>709</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>353</c:v>
+                  <c:v>1300</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>555</c:v>
+                  <c:v>1700</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-63F2-463C-9ADA-63650273108A}"/>
+              <c16:uniqueId val="{00000001-B1BA-42FD-A4E9-3885CADB25D8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -668,12 +638,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="86760832"/>
-        <c:axId val="86795392"/>
-      </c:barChart>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="88368256"/>
+        <c:axId val="88369792"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="86760832"/>
+        <c:axId val="88368256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -683,7 +654,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86795392"/>
+        <c:crossAx val="88369792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -691,7 +662,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86795392"/>
+        <c:axId val="88369792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -702,7 +673,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86760832"/>
+        <c:crossAx val="88368256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -764,7 +735,7 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="C00000"/>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -804,22 +775,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2542</c:v>
+                  <c:v>2818</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2542</c:v>
+                  <c:v>2818</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2542</c:v>
+                  <c:v>2818</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2542</c:v>
+                  <c:v>2818</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2542</c:v>
+                  <c:v>2818</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2542</c:v>
+                  <c:v>2818</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -848,7 +819,7 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="0070C0"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -925,11 +896,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="86825216"/>
-        <c:axId val="86827008"/>
+        <c:axId val="88332544"/>
+        <c:axId val="88334336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="86825216"/>
+        <c:axId val="88332544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -939,7 +910,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86827008"/>
+        <c:crossAx val="88334336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -947,7 +918,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86827008"/>
+        <c:axId val="88334336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="2000"/>
@@ -959,7 +930,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86825216"/>
+        <c:crossAx val="88332544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1002,10 +973,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.23238643824027541"/>
-          <c:y val="3.3228162269190037E-2"/>
-          <c:w val="0.55800817402008984"/>
-          <c:h val="0.74225132384767689"/>
+          <c:x val="0.10042229477412884"/>
+          <c:y val="4.4276063852674151E-2"/>
+          <c:w val="0.65952265113202313"/>
+          <c:h val="0.64865109074480443"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1025,14 +996,21 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$3:$A$8</c:f>
+              <c:f>Tabelle1!$A$3:$A$14</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Januar</c:v>
                 </c:pt>
@@ -1050,16 +1028,34 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Juni</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Juli</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oktober</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dezember</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$F$3:$F$8</c:f>
+              <c:f>Tabelle1!$F$3:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>275</c:v>
                 </c:pt>
@@ -1076,7 +1072,25 @@
                   <c:v>1987</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2542</c:v>
+                  <c:v>2580</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2818</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2818</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2818</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2818</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2818</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2818</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1084,7 +1098,7 @@
           <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B1BA-42FD-A4E9-3885CADB25D8}"/>
+              <c16:uniqueId val="{00000000-68CC-46A5-A005-A4142E5F77DA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1102,14 +1116,21 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$3:$A$8</c:f>
+              <c:f>Tabelle1!$A$3:$A$14</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Januar</c:v>
                 </c:pt>
@@ -1127,16 +1148,34 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Juni</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Juli</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oktober</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dezember</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$D$3:$D$8</c:f>
+              <c:f>Tabelle1!$D$3:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>150</c:v>
                 </c:pt>
@@ -1154,6 +1193,24 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2450</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2850</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3150</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3350</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1161,7 +1218,7 @@
           <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B1BA-42FD-A4E9-3885CADB25D8}"/>
+              <c16:uniqueId val="{00000001-68CC-46A5-A005-A4142E5F77DA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1175,11 +1232,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="87909504"/>
-        <c:axId val="87911040"/>
+        <c:axId val="87003904"/>
+        <c:axId val="87005440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="87909504"/>
+        <c:axId val="87003904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1189,7 +1246,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87911040"/>
+        <c:crossAx val="87005440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1197,7 +1254,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87911040"/>
+        <c:axId val="87005440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1208,7 +1265,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87909504"/>
+        <c:crossAx val="87003904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1237,21 +1294,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>295276</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>409576</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>209551</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>61914</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Diagramm 2"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="6" name="Diagramm 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1267,20 +1326,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>438151</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>180976</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>61914</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Diagramm 5"/>
+        <xdr:cNvPr id="7" name="Diagramm 6"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -1329,23 +1388,21 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>438151</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>409576</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Diagramm 6"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1652,22 +1709,26 @@
   <dimension ref="A2:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="4" width="11.42578125" style="2"/>
+    <col min="5" max="6" width="11.42578125" style="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1675,17 +1736,17 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>150</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <f t="shared" ref="D3:F14" si="0">SUM(D2)+C3</f>
         <v>150</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>275</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <f t="shared" si="0"/>
         <v>275</v>
       </c>
@@ -1694,17 +1755,17 @@
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>200</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <f t="shared" si="0"/>
         <v>350</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>94</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <f t="shared" ref="F4:F14" si="1">SUM(F3)+E4</f>
         <v>369</v>
       </c>
@@ -1713,17 +1774,17 @@
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>300</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <f t="shared" si="0"/>
         <v>650</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>556</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <f t="shared" si="1"/>
         <v>925</v>
       </c>
@@ -1732,17 +1793,17 @@
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>350</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>709</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <f t="shared" si="1"/>
         <v>1634</v>
       </c>
@@ -1751,17 +1812,17 @@
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>300</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <f t="shared" si="0"/>
         <v>1300</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>353</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <f t="shared" si="1"/>
         <v>1987</v>
       </c>
@@ -1770,133 +1831,137 @@
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>400</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <f t="shared" si="0"/>
         <v>1700</v>
       </c>
-      <c r="E8">
-        <v>555</v>
-      </c>
-      <c r="F8">
+      <c r="E8" s="1">
+        <v>593</v>
+      </c>
+      <c r="F8" s="1">
         <f t="shared" si="1"/>
-        <v>2542</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>500</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <f t="shared" si="0"/>
         <v>2200</v>
       </c>
-      <c r="F9">
+      <c r="E9" s="1">
+        <v>238</v>
+      </c>
+      <c r="F9" s="1">
         <f t="shared" si="1"/>
-        <v>2542</v>
+        <v>2818</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>250</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <f t="shared" si="0"/>
         <v>2450</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <f t="shared" si="1"/>
-        <v>2542</v>
+        <v>2818</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>400</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <f t="shared" si="0"/>
         <v>2850</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <f t="shared" si="1"/>
-        <v>2542</v>
+        <v>2818</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>300</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <f t="shared" si="0"/>
         <v>3150</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <f t="shared" si="1"/>
-        <v>2542</v>
+        <v>2818</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>200</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <f t="shared" si="0"/>
         <v>3350</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <f t="shared" si="1"/>
-        <v>2542</v>
+        <v>2818</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>150</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <f t="shared" si="0"/>
         <v>3500</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <f t="shared" si="1"/>
-        <v>2542</v>
+        <v>2818</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <f>SUM(C3:C14)</f>
         <v>3500</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <f>SUM(E3:E14)</f>
-        <v>2542</v>
+        <v>2818</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Radkm_Planung_2018.xlsx
+++ b/Radkm_Planung_2018.xlsx
@@ -354,7 +354,10 @@
                   <c:v>593</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>238</c:v>
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>134</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -374,11 +377,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="87022976"/>
-        <c:axId val="88306816"/>
+        <c:axId val="84452480"/>
+        <c:axId val="84454016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="87022976"/>
+        <c:axId val="84452480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -388,7 +391,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88306816"/>
+        <c:crossAx val="84454016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -396,7 +399,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88306816"/>
+        <c:axId val="84454016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -407,7 +410,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87022976"/>
+        <c:crossAx val="84452480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -640,11 +643,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="88368256"/>
-        <c:axId val="88369792"/>
+        <c:axId val="84955136"/>
+        <c:axId val="84956672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="88368256"/>
+        <c:axId val="84955136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -654,7 +657,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88369792"/>
+        <c:crossAx val="84956672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -662,7 +665,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88369792"/>
+        <c:axId val="84956672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -673,7 +676,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88368256"/>
+        <c:crossAx val="84955136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -775,22 +778,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2818</c:v>
+                  <c:v>2936</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2818</c:v>
+                  <c:v>3070</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2818</c:v>
+                  <c:v>3070</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2818</c:v>
+                  <c:v>3070</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2818</c:v>
+                  <c:v>3070</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2818</c:v>
+                  <c:v>3070</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -896,11 +899,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="88332544"/>
-        <c:axId val="88334336"/>
+        <c:axId val="84982400"/>
+        <c:axId val="84992384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="88332544"/>
+        <c:axId val="84982400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -910,7 +913,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88334336"/>
+        <c:crossAx val="84992384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -918,7 +921,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88334336"/>
+        <c:axId val="84992384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="2000"/>
@@ -930,7 +933,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88332544"/>
+        <c:crossAx val="84982400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1075,22 +1078,22 @@
                   <c:v>2580</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2818</c:v>
+                  <c:v>2936</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2818</c:v>
+                  <c:v>3070</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2818</c:v>
+                  <c:v>3070</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2818</c:v>
+                  <c:v>3070</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2818</c:v>
+                  <c:v>3070</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2818</c:v>
+                  <c:v>3070</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1232,11 +1235,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="87003904"/>
-        <c:axId val="87005440"/>
+        <c:axId val="87582208"/>
+        <c:axId val="87583744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="87003904"/>
+        <c:axId val="87582208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1246,7 +1249,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87005440"/>
+        <c:crossAx val="87583744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1254,7 +1257,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87005440"/>
+        <c:axId val="87583744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1265,7 +1268,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87003904"/>
+        <c:crossAx val="87582208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1709,7 +1712,7 @@
   <dimension ref="A2:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1858,11 +1861,11 @@
         <v>2200</v>
       </c>
       <c r="E9" s="1">
-        <v>238</v>
+        <v>356</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="1"/>
-        <v>2818</v>
+        <v>2936</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1876,9 +1879,12 @@
         <f t="shared" si="0"/>
         <v>2450</v>
       </c>
+      <c r="E10" s="1">
+        <v>134</v>
+      </c>
       <c r="F10" s="1">
         <f t="shared" si="1"/>
-        <v>2818</v>
+        <v>3070</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1894,7 +1900,7 @@
       </c>
       <c r="F11" s="1">
         <f t="shared" si="1"/>
-        <v>2818</v>
+        <v>3070</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1910,7 +1916,7 @@
       </c>
       <c r="F12" s="1">
         <f t="shared" si="1"/>
-        <v>2818</v>
+        <v>3070</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1926,7 +1932,7 @@
       </c>
       <c r="F13" s="1">
         <f t="shared" si="1"/>
-        <v>2818</v>
+        <v>3070</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1942,7 +1948,7 @@
       </c>
       <c r="F14" s="1">
         <f t="shared" si="1"/>
-        <v>2818</v>
+        <v>3070</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1955,7 +1961,7 @@
       </c>
       <c r="E15" s="1">
         <f>SUM(E3:E14)</f>
-        <v>2818</v>
+        <v>3070</v>
       </c>
     </row>
   </sheetData>

--- a/Radkm_Planung_2018.xlsx
+++ b/Radkm_Planung_2018.xlsx
@@ -357,7 +357,7 @@
                   <c:v>356</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>134</c:v>
+                  <c:v>211</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -377,11 +377,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="84452480"/>
-        <c:axId val="84454016"/>
+        <c:axId val="89236608"/>
+        <c:axId val="89238144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="84452480"/>
+        <c:axId val="89236608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -391,7 +391,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84454016"/>
+        <c:crossAx val="89238144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -399,7 +399,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84454016"/>
+        <c:axId val="89238144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -410,7 +410,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84452480"/>
+        <c:crossAx val="89236608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -643,11 +643,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="84955136"/>
-        <c:axId val="84956672"/>
+        <c:axId val="89280512"/>
+        <c:axId val="89282048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="84955136"/>
+        <c:axId val="89280512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -657,7 +657,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84956672"/>
+        <c:crossAx val="89282048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -665,7 +665,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84956672"/>
+        <c:axId val="89282048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -676,7 +676,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84955136"/>
+        <c:crossAx val="89280512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -781,19 +781,19 @@
                   <c:v>2936</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3070</c:v>
+                  <c:v>3147</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3070</c:v>
+                  <c:v>3147</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3070</c:v>
+                  <c:v>3147</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3070</c:v>
+                  <c:v>3147</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3070</c:v>
+                  <c:v>3147</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -899,11 +899,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="84982400"/>
-        <c:axId val="84992384"/>
+        <c:axId val="89307776"/>
+        <c:axId val="89317760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="84982400"/>
+        <c:axId val="89307776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -913,7 +913,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84992384"/>
+        <c:crossAx val="89317760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -921,7 +921,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84992384"/>
+        <c:axId val="89317760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="2000"/>
@@ -933,7 +933,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84982400"/>
+        <c:crossAx val="89307776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1081,19 +1081,19 @@
                   <c:v>2936</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3070</c:v>
+                  <c:v>3147</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3070</c:v>
+                  <c:v>3147</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3070</c:v>
+                  <c:v>3147</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3070</c:v>
+                  <c:v>3147</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3070</c:v>
+                  <c:v>3147</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1235,11 +1235,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="87582208"/>
-        <c:axId val="87583744"/>
+        <c:axId val="89679360"/>
+        <c:axId val="89680896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="87582208"/>
+        <c:axId val="89679360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1249,7 +1249,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87583744"/>
+        <c:crossAx val="89680896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1257,7 +1257,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87583744"/>
+        <c:axId val="89680896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1268,7 +1268,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87582208"/>
+        <c:crossAx val="89679360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1880,11 +1880,11 @@
         <v>2450</v>
       </c>
       <c r="E10" s="1">
-        <v>134</v>
+        <v>211</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="1"/>
-        <v>3070</v>
+        <v>3147</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1900,7 +1900,7 @@
       </c>
       <c r="F11" s="1">
         <f t="shared" si="1"/>
-        <v>3070</v>
+        <v>3147</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1916,7 +1916,7 @@
       </c>
       <c r="F12" s="1">
         <f t="shared" si="1"/>
-        <v>3070</v>
+        <v>3147</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1932,7 +1932,7 @@
       </c>
       <c r="F13" s="1">
         <f t="shared" si="1"/>
-        <v>3070</v>
+        <v>3147</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1948,7 +1948,7 @@
       </c>
       <c r="F14" s="1">
         <f t="shared" si="1"/>
-        <v>3070</v>
+        <v>3147</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1961,7 +1961,7 @@
       </c>
       <c r="E15" s="1">
         <f>SUM(E3:E14)</f>
-        <v>3070</v>
+        <v>3147</v>
       </c>
     </row>
   </sheetData>

--- a/Radkm_Planung_2018.xlsx
+++ b/Radkm_Planung_2018.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wib\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="150" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -72,7 +77,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -138,7 +143,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -267,7 +272,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-63F2-463C-9ADA-63650273108A}"/>
             </c:ext>
@@ -359,10 +364,22 @@
                 <c:pt idx="7">
                   <c:v>211</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>260</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-63F2-463C-9ADA-63650273108A}"/>
             </c:ext>
@@ -436,7 +453,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -543,7 +560,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B1BA-42FD-A4E9-3885CADB25D8}"/>
             </c:ext>
@@ -627,7 +644,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B1BA-42FD-A4E9-3885CADB25D8}"/>
             </c:ext>
@@ -641,7 +658,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="89280512"/>
         <c:axId val="89282048"/>
@@ -702,7 +718,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -784,22 +800,22 @@
                   <c:v>3147</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3147</c:v>
+                  <c:v>3305</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3147</c:v>
+                  <c:v>3493</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3147</c:v>
+                  <c:v>3782</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3147</c:v>
+                  <c:v>4042</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-757A-404A-B1A4-F1E0155A5B4C}"/>
             </c:ext>
@@ -883,7 +899,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-757A-404A-B1A4-F1E0155A5B4C}"/>
             </c:ext>
@@ -897,7 +913,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="89307776"/>
         <c:axId val="89317760"/>
@@ -956,7 +971,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -1084,22 +1099,22 @@
                   <c:v>3147</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3147</c:v>
+                  <c:v>3305</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3147</c:v>
+                  <c:v>3493</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3147</c:v>
+                  <c:v>3782</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3147</c:v>
+                  <c:v>4042</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-68CC-46A5-A005-A4142E5F77DA}"/>
             </c:ext>
@@ -1219,7 +1234,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-68CC-46A5-A005-A4142E5F77DA}"/>
             </c:ext>
@@ -1233,7 +1248,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="89679360"/>
         <c:axId val="89680896"/>
@@ -1423,9 +1437,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1463,9 +1477,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1500,7 +1514,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1535,7 +1549,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1712,7 +1726,7 @@
   <dimension ref="A2:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1898,9 +1912,12 @@
         <f t="shared" si="0"/>
         <v>2850</v>
       </c>
+      <c r="E11" s="1">
+        <v>158</v>
+      </c>
       <c r="F11" s="1">
         <f t="shared" si="1"/>
-        <v>3147</v>
+        <v>3305</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1914,9 +1931,12 @@
         <f t="shared" si="0"/>
         <v>3150</v>
       </c>
+      <c r="E12" s="1">
+        <v>188</v>
+      </c>
       <c r="F12" s="1">
         <f t="shared" si="1"/>
-        <v>3147</v>
+        <v>3493</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1930,9 +1950,12 @@
         <f t="shared" si="0"/>
         <v>3350</v>
       </c>
+      <c r="E13" s="1">
+        <v>289</v>
+      </c>
       <c r="F13" s="1">
         <f t="shared" si="1"/>
-        <v>3147</v>
+        <v>3782</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1946,9 +1969,12 @@
         <f t="shared" si="0"/>
         <v>3500</v>
       </c>
+      <c r="E14" s="1">
+        <v>260</v>
+      </c>
       <c r="F14" s="1">
         <f t="shared" si="1"/>
-        <v>3147</v>
+        <v>4042</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1961,7 +1987,7 @@
       </c>
       <c r="E15" s="1">
         <f>SUM(E3:E14)</f>
-        <v>3147</v>
+        <v>4042</v>
       </c>
     </row>
   </sheetData>

--- a/Radkm_Planung_2018.xlsx
+++ b/Radkm_Planung_2018.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wib\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="150" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
@@ -16,7 +11,7 @@
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -77,7 +72,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -143,7 +138,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -272,7 +267,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-63F2-463C-9ADA-63650273108A}"/>
             </c:ext>
@@ -379,7 +374,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-63F2-463C-9ADA-63650273108A}"/>
             </c:ext>
@@ -394,11 +389,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="89236608"/>
-        <c:axId val="89238144"/>
+        <c:axId val="88450176"/>
+        <c:axId val="88451712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="89236608"/>
+        <c:axId val="88450176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -408,7 +403,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89238144"/>
+        <c:crossAx val="88451712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -416,7 +411,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89238144"/>
+        <c:axId val="88451712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -427,7 +422,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89236608"/>
+        <c:crossAx val="88450176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -453,7 +448,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -560,7 +555,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B1BA-42FD-A4E9-3885CADB25D8}"/>
             </c:ext>
@@ -644,7 +639,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B1BA-42FD-A4E9-3885CADB25D8}"/>
             </c:ext>
@@ -658,12 +653,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="89280512"/>
-        <c:axId val="89282048"/>
+        <c:axId val="89219072"/>
+        <c:axId val="89220608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="89280512"/>
+        <c:axId val="89219072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -673,7 +669,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89282048"/>
+        <c:crossAx val="89220608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -681,7 +677,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89282048"/>
+        <c:axId val="89220608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -692,7 +688,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89280512"/>
+        <c:crossAx val="89219072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -718,7 +714,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -815,7 +811,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-757A-404A-B1A4-F1E0155A5B4C}"/>
             </c:ext>
@@ -899,7 +895,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-757A-404A-B1A4-F1E0155A5B4C}"/>
             </c:ext>
@@ -913,12 +909,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="89307776"/>
-        <c:axId val="89317760"/>
+        <c:axId val="89242240"/>
+        <c:axId val="89252224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="89307776"/>
+        <c:axId val="89242240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -928,7 +925,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89317760"/>
+        <c:crossAx val="89252224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -936,7 +933,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89317760"/>
+        <c:axId val="89252224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="2000"/>
@@ -948,7 +945,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89307776"/>
+        <c:crossAx val="89242240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -971,7 +968,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -1114,7 +1111,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-68CC-46A5-A005-A4142E5F77DA}"/>
             </c:ext>
@@ -1234,7 +1231,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-68CC-46A5-A005-A4142E5F77DA}"/>
             </c:ext>
@@ -1248,12 +1245,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="89679360"/>
-        <c:axId val="89680896"/>
+        <c:axId val="91055616"/>
+        <c:axId val="91057152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="89679360"/>
+        <c:axId val="91055616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1263,7 +1261,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89680896"/>
+        <c:crossAx val="91057152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1271,7 +1269,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89680896"/>
+        <c:axId val="91057152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1282,7 +1280,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89679360"/>
+        <c:crossAx val="91055616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1437,9 +1435,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1477,9 +1475,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1514,7 +1512,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1549,7 +1547,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1726,7 +1724,7 @@
   <dimension ref="A2:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
